--- a/resources/箱包/Luggage & Travel Bags.xlsx
+++ b/resources/箱包/Luggage & Travel Bags.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Luggage &amp; Travel Bags" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
   <si>
     <t>Material</t>
   </si>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>Tools</t>
+  </si>
+  <si>
+    <t>Dress &amp; Gown Bags</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -764,8 +768,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15" displayName="表15" ref="A1:A8" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A1:A8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15" displayName="表15" ref="A1:A10" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A1:A10"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Material" dataDxfId="39"/>
   </tableColumns>
@@ -824,8 +828,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表15_3" displayName="表15_3" ref="A10:A18" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A10:A18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表15_3" displayName="表15_3" ref="A12:A29" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A12:A29"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Type" dataDxfId="36"/>
   </tableColumns>
@@ -834,8 +838,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表15_345" displayName="表15_345" ref="A20:A27" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A20:A27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表15_345" displayName="表15_345" ref="A31:A39" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A31:A39"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Caster" dataDxfId="33"/>
   </tableColumns>
@@ -854,20 +858,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表15_3459" displayName="表15_3459" ref="A13:A17" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表15_3459" displayName="表15_3459" ref="A13:A17" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A13:A17"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Caster" dataDxfId="24"/>
+    <tableColumn id="1" name="Caster" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表15_38" displayName="表15_38" ref="A7:A11" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表15_38" displayName="表15_38" ref="A7:A11" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A7:A11"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Type" dataDxfId="27"/>
+    <tableColumn id="1" name="Type" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1190,15 +1194,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
@@ -1242,103 +1246,158 @@
       </c>
     </row>
     <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1348,7 +1407,7 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A16" sqref="A14:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1469,7 +1528,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD20"/>
+      <selection activeCell="A17" sqref="A11:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1580,7 +1639,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A5" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1642,7 +1701,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A13" sqref="A11:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1727,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
